--- a/RUM.xlsx
+++ b/RUM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E803B198-2000-45D0-B0DE-287E6109DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18AFB0-CB9F-459B-9A61-A9D2285905B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{65D9AEDE-8462-4F60-A179-F521A11D0398}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{65D9AEDE-8462-4F60-A179-F521A11D0398}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,12 +115,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -131,12 +129,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,15 +171,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,105 +519,106 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>7.36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <f>214.817983</f>
         <v>214.817983</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f>+I2*I3</f>
         <v>1581.06035488</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>114.0189</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>40.391302000000003</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f>+I4-I5+I6</f>
         <v>1507.4327568799999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -622,31 +635,32 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="C2:F2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
